--- a/tables/TableSX_npeople_deficient.xlsx
+++ b/tables/TableSX_npeople_deficient.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/nutrition/Health-Benefit-Calculation-BFA/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D8D207BC-0EF9-DC4E-84E5-BAD068B29FFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BB4215-407D-C34D-AAEE-7CF59C05B5E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12380" yWindow="6460" windowWidth="27240" windowHeight="16440"/>
+    <workbookView xWindow="12380" yWindow="6460" windowWidth="27240" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableSX_npeople_deficient" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,6 @@
     <t>Iron</t>
   </si>
   <si>
-    <t>Omega-3 fatty acids</t>
-  </si>
-  <si>
     <t>Vitamin A, RAE</t>
   </si>
   <si>
@@ -43,22 +40,28 @@
     <t>Nutrient</t>
   </si>
   <si>
-    <t>Numer of people:</t>
+    <t>Millions of:</t>
   </si>
   <si>
-    <t>Spared deficiencies</t>
+    <t>Prevented deficiencies</t>
   </si>
   <si>
-    <t>Given defiencies</t>
+    <t>Added deficiencies</t>
   </si>
   <si>
-    <t>Net change</t>
+    <t>Net</t>
+  </si>
+  <si>
+    <t>DHA-EPA fatty acids</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="172" formatCode="0.0"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -558,8 +561,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -914,125 +917,125 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="A2:D9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1">
-        <v>-5073273915.3778296</v>
-      </c>
-      <c r="C4" s="1">
-        <v>34533397.603548601</v>
-      </c>
-      <c r="D4" s="1">
-        <v>-5038740517.7742796</v>
+      <c r="B4" s="4">
+        <v>-50.732739153778297</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.34533397603548499</v>
+      </c>
+      <c r="D4" s="4">
+        <v>-50.387405177742799</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1">
-        <v>-1808191157.6091199</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4239643.9239530796</v>
-      </c>
-      <c r="D5" s="1">
-        <v>-1803951513.6851699</v>
+      <c r="B5" s="4">
+        <v>-18.081911576091201</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4.2396439239530903E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>-18.039515136851701</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1">
-        <v>-6478540005.96525</v>
-      </c>
-      <c r="C6" s="1">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4">
+        <v>-64.785400059652403</v>
+      </c>
+      <c r="C6" s="4">
         <v>0</v>
       </c>
-      <c r="D6" s="1">
-        <v>-6478540005.96525</v>
+      <c r="D6" s="4">
+        <v>-64.785400059652403</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-1336733450.3394401</v>
-      </c>
-      <c r="C7" s="1">
-        <v>172164355.65525401</v>
-      </c>
-      <c r="D7" s="1">
-        <v>-1164569094.68419</v>
+        <v>2</v>
+      </c>
+      <c r="B7" s="4">
+        <v>-13.367334503394501</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1.7216435565525401</v>
+      </c>
+      <c r="D7" s="4">
+        <v>-11.645690946841899</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-3575548745.4853101</v>
-      </c>
-      <c r="C8" s="1">
-        <v>4266552.3706962699</v>
-      </c>
-      <c r="D8" s="1">
-        <v>-3571282193.1146102</v>
+        <v>3</v>
+      </c>
+      <c r="B8" s="4">
+        <v>-35.755487454853103</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4.2665523706962701E-2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>-35.712821931146102</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1">
-        <v>-2011149374.8872199</v>
-      </c>
-      <c r="C9" s="1">
-        <v>6741565.8688999601</v>
-      </c>
-      <c r="D9" s="1">
-        <v>-2004407809.0183201</v>
+        <v>4</v>
+      </c>
+      <c r="B9" s="4">
+        <v>-20.111493748872199</v>
+      </c>
+      <c r="C9" s="4">
+        <v>6.7415658688999597E-2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>-20.044078090183199</v>
       </c>
     </row>
   </sheetData>

--- a/tables/TableSX_npeople_deficient.xlsx
+++ b/tables/TableSX_npeople_deficient.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/nutrition/Health-Benefit-Calculation-BFA/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BB4215-407D-C34D-AAEE-7CF59C05B5E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD5AA96-9973-1046-9FBD-A4969F6BFBCC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12380" yWindow="6460" windowWidth="27240" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21280" yWindow="5640" windowWidth="27240" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableSX_npeople_deficient" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -52,7 +52,7 @@
     <t>Net</t>
   </si>
   <si>
-    <t>DHA-EPA fatty acids</t>
+    <t>Omega-3 fatty acids</t>
   </si>
 </sst>
 </file>
@@ -60,7 +60,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -562,7 +562,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -918,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D9"/>
+  <dimension ref="A2:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -929,10 +929,10 @@
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -940,7 +940,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -954,88 +954,95 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4">
-        <v>-50.732739153778297</v>
+        <v>-49.684257680412102</v>
       </c>
       <c r="C4" s="4">
-        <v>0.34533397603548499</v>
+        <v>0.34082568993947399</v>
       </c>
       <c r="D4" s="4">
-        <v>-50.387405177742799</v>
-      </c>
+        <v>-49.343431990472602</v>
+      </c>
+      <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4">
-        <v>-18.081911576091201</v>
+        <v>-8.1398324940678304</v>
       </c>
       <c r="C5" s="4">
-        <v>4.2396439239530903E-2</v>
+        <v>4.1705004267506202E-2</v>
       </c>
       <c r="D5" s="4">
-        <v>-18.039515136851701</v>
+        <v>-8.0981274898003193</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="4">
-        <v>-64.785400059652403</v>
+        <v>-76.810738935845805</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
       </c>
       <c r="D6" s="4">
-        <v>-64.785400059652403</v>
+        <v>-76.810738935845805</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="4">
-        <v>-13.367334503394501</v>
+        <v>-0.54842838270643901</v>
       </c>
       <c r="C7" s="4">
-        <v>1.7216435565525401</v>
+        <v>10.6960475341827</v>
       </c>
       <c r="D7" s="4">
-        <v>-11.645690946841899</v>
+        <v>10.147619151476301</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="4">
-        <v>-35.755487454853103</v>
+        <v>-36.000518136913897</v>
       </c>
       <c r="C8" s="4">
-        <v>4.2665523706962701E-2</v>
+        <v>9.0834036071950792E-3</v>
       </c>
       <c r="D8" s="4">
-        <v>-35.712821931146102</v>
+        <v>-35.991434733306697</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="4">
-        <v>-20.111493748872199</v>
+        <v>-5.6232963706494399</v>
       </c>
       <c r="C9" s="4">
-        <v>6.7415658688999597E-2</v>
+        <v>0.15586894764710299</v>
       </c>
       <c r="D9" s="4">
-        <v>-20.044078090183199</v>
+        <v>-5.4674274230023396</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D11" s="4">
+        <f>SUM(D4:D9)</f>
+        <v>-165.56354142095145</v>
       </c>
     </row>
   </sheetData>
